--- a/biology/Botanique/Thalictrum_minus_subsp._majus/Thalictrum_minus_subsp._majus.xlsx
+++ b/biology/Botanique/Thalictrum_minus_subsp._majus/Thalictrum_minus_subsp._majus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pigamon des prés
 Le Pigamon des prés, Thalictrum minus subsp. majus (Crantz) Hook.f., est une sous-espèce de Thalictrum minus, le Petit pigamon, de la famille des Ranunculaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace de 50 jusqu'à 120 cm de hauteur. Tige striée et glauque. Les feuilles sont alternes, trilobées et glauques en dessous. Les fleurs sont verdâtres ou jaunâtres en panicule lâche. Plante toxique.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Prés secs et taillis des plaines et vallées alluviales. Sols à textures sablo-limoneuses.
 </t>
@@ -574,7 +590,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Floraison de juin à août.
 </t>
@@ -605,7 +623,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe centrale: des Pays-Bas et de la Lorraine à l'Autriche et à l'Italie septentrionale.
 </t>
@@ -636,7 +656,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Figure sur la liste régionale des plantes protégées de Lorraine.
 Les stations des plaines alluviales sont souvent modifiées par l'apport d'engrais, par les cultures et les gravières rarifiant ainsi le Pigamon des prés de façon significative.
@@ -668,9 +690,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du grec thalleïn verdir et ictar vite. Allusion à sa rapidité de végétation[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du grec thalleïn verdir et ictar vite. Allusion à sa rapidité de végétation.
 </t>
         </is>
       </c>
@@ -699,7 +723,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Thalictrum minus subsp. pratense (F.W.Schultz) Hand
 Thalictrum minus subsp. depauperatum Dum.
